--- a/demo/src/main/resources/MEDICAMENTOS_VETERINARIA.xlsx
+++ b/demo/src/main/resources/MEDICAMENTOS_VETERINARIA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livejaverianaedu-my.sharepoint.com/personal/angaritat_js_javeriana_edu_co/Documents/CLASES/PROGRAMACION WEB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria Paula R\Desktop\U Javeriana\VI Semestre\Desarrollo Web\Back Vet\Proyecto-Web-Backend2\demo\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{44757738-7619-402C-9AD9-666B5C2A2CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E991894C-DBE1-4FBA-9A67-AEAFB4809800}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8469EB-56C2-4AF2-8DF4-6B195D209A64}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MEDICAMENTOS BD FINAL" sheetId="10" r:id="rId1"/>
@@ -23,12 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1629,7 +1623,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1989,11 +1983,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22169EE9-4596-4307-A7B5-C6523647A88D}">
   <dimension ref="A1:E524"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A490" workbookViewId="0">
+      <selection activeCell="E524" sqref="E524"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -2001,7 +1995,7 @@
     <col min="4" max="5" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2018,7 +2012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2032,10 +2026,10 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -2049,10 +2043,10 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -2066,10 +2060,10 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2083,10 +2077,10 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2100,10 +2094,10 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2117,10 +2111,10 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2134,10 +2128,10 @@
         <v>6</v>
       </c>
       <c r="E8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2151,10 +2145,10 @@
         <v>2</v>
       </c>
       <c r="E9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2168,10 +2162,10 @@
         <v>4</v>
       </c>
       <c r="E10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2185,10 +2179,10 @@
         <v>4</v>
       </c>
       <c r="E11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2202,10 +2196,10 @@
         <v>7</v>
       </c>
       <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2222,7 +2216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2236,10 +2230,10 @@
         <v>9</v>
       </c>
       <c r="E14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -2253,10 +2247,10 @@
         <v>3</v>
       </c>
       <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2270,10 +2264,10 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -2287,10 +2281,10 @@
         <v>3</v>
       </c>
       <c r="E17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -2304,10 +2298,10 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -2321,10 +2315,10 @@
         <v>6</v>
       </c>
       <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2338,10 +2332,10 @@
         <v>8</v>
       </c>
       <c r="E20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2355,10 +2349,10 @@
         <v>3</v>
       </c>
       <c r="E21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2372,10 +2366,10 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2392,7 +2386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2406,10 +2400,10 @@
         <v>8</v>
       </c>
       <c r="E24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2423,10 +2417,10 @@
         <v>6</v>
       </c>
       <c r="E25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -2440,10 +2434,10 @@
         <v>5</v>
       </c>
       <c r="E26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>30</v>
       </c>
@@ -2457,10 +2451,10 @@
         <v>2</v>
       </c>
       <c r="E27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>31</v>
       </c>
@@ -2474,10 +2468,10 @@
         <v>9</v>
       </c>
       <c r="E28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>32</v>
       </c>
@@ -2494,7 +2488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>33</v>
       </c>
@@ -2508,10 +2502,10 @@
         <v>10</v>
       </c>
       <c r="E30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>34</v>
       </c>
@@ -2525,10 +2519,10 @@
         <v>4</v>
       </c>
       <c r="E31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -2542,10 +2536,10 @@
         <v>7</v>
       </c>
       <c r="E32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>36</v>
       </c>
@@ -2559,10 +2553,10 @@
         <v>10</v>
       </c>
       <c r="E33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -2576,10 +2570,10 @@
         <v>9</v>
       </c>
       <c r="E34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>38</v>
       </c>
@@ -2593,10 +2587,10 @@
         <v>6</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>39</v>
       </c>
@@ -2610,10 +2604,10 @@
         <v>8</v>
       </c>
       <c r="E36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>40</v>
       </c>
@@ -2627,10 +2621,10 @@
         <v>8</v>
       </c>
       <c r="E37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>41</v>
       </c>
@@ -2644,10 +2638,10 @@
         <v>10</v>
       </c>
       <c r="E38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -2661,10 +2655,10 @@
         <v>4</v>
       </c>
       <c r="E39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -2678,10 +2672,10 @@
         <v>9</v>
       </c>
       <c r="E40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -2695,10 +2689,10 @@
         <v>9</v>
       </c>
       <c r="E41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -2712,10 +2706,10 @@
         <v>2</v>
       </c>
       <c r="E42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>46</v>
       </c>
@@ -2729,10 +2723,10 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>47</v>
       </c>
@@ -2746,10 +2740,10 @@
         <v>2</v>
       </c>
       <c r="E44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -2763,10 +2757,10 @@
         <v>6</v>
       </c>
       <c r="E45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -2780,10 +2774,10 @@
         <v>6</v>
       </c>
       <c r="E46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -2800,7 +2794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -2814,10 +2808,10 @@
         <v>5</v>
       </c>
       <c r="E48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>52</v>
       </c>
@@ -2831,10 +2825,10 @@
         <v>4</v>
       </c>
       <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>53</v>
       </c>
@@ -2848,10 +2842,10 @@
         <v>8</v>
       </c>
       <c r="E50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -2865,10 +2859,10 @@
         <v>6</v>
       </c>
       <c r="E51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -2885,7 +2879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>56</v>
       </c>
@@ -2899,10 +2893,10 @@
         <v>8</v>
       </c>
       <c r="E53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -2916,10 +2910,10 @@
         <v>8</v>
       </c>
       <c r="E54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>58</v>
       </c>
@@ -2933,10 +2927,10 @@
         <v>7</v>
       </c>
       <c r="E55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>59</v>
       </c>
@@ -2950,10 +2944,10 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>60</v>
       </c>
@@ -2967,10 +2961,10 @@
         <v>3</v>
       </c>
       <c r="E57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>61</v>
       </c>
@@ -2984,10 +2978,10 @@
         <v>4</v>
       </c>
       <c r="E58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>62</v>
       </c>
@@ -3001,10 +2995,10 @@
         <v>1</v>
       </c>
       <c r="E59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>63</v>
       </c>
@@ -3018,10 +3012,10 @@
         <v>9</v>
       </c>
       <c r="E60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>64</v>
       </c>
@@ -3035,10 +3029,10 @@
         <v>10</v>
       </c>
       <c r="E61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>65</v>
       </c>
@@ -3052,10 +3046,10 @@
         <v>2</v>
       </c>
       <c r="E62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>66</v>
       </c>
@@ -3069,10 +3063,10 @@
         <v>4</v>
       </c>
       <c r="E63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>67</v>
       </c>
@@ -3086,10 +3080,10 @@
         <v>7</v>
       </c>
       <c r="E64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>68</v>
       </c>
@@ -3103,10 +3097,10 @@
         <v>1</v>
       </c>
       <c r="E65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>69</v>
       </c>
@@ -3120,10 +3114,10 @@
         <v>7</v>
       </c>
       <c r="E66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>70</v>
       </c>
@@ -3137,10 +3131,10 @@
         <v>8</v>
       </c>
       <c r="E67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -3154,10 +3148,10 @@
         <v>7</v>
       </c>
       <c r="E68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>72</v>
       </c>
@@ -3171,10 +3165,10 @@
         <v>6</v>
       </c>
       <c r="E69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>73</v>
       </c>
@@ -3188,10 +3182,10 @@
         <v>6</v>
       </c>
       <c r="E70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>74</v>
       </c>
@@ -3205,10 +3199,10 @@
         <v>10</v>
       </c>
       <c r="E71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>75</v>
       </c>
@@ -3222,10 +3216,10 @@
         <v>8</v>
       </c>
       <c r="E72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -3239,10 +3233,10 @@
         <v>8</v>
       </c>
       <c r="E73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -3256,10 +3250,10 @@
         <v>10</v>
       </c>
       <c r="E74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>78</v>
       </c>
@@ -3273,10 +3267,10 @@
         <v>8</v>
       </c>
       <c r="E75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>79</v>
       </c>
@@ -3290,10 +3284,10 @@
         <v>8</v>
       </c>
       <c r="E76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>80</v>
       </c>
@@ -3307,10 +3301,10 @@
         <v>9</v>
       </c>
       <c r="E77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -3324,10 +3318,10 @@
         <v>1</v>
       </c>
       <c r="E78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>82</v>
       </c>
@@ -3341,10 +3335,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>83</v>
       </c>
@@ -3358,10 +3352,10 @@
         <v>3</v>
       </c>
       <c r="E80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>84</v>
       </c>
@@ -3375,10 +3369,10 @@
         <v>7</v>
       </c>
       <c r="E81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>85</v>
       </c>
@@ -3392,10 +3386,10 @@
         <v>7</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>86</v>
       </c>
@@ -3412,7 +3406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>87</v>
       </c>
@@ -3426,10 +3420,10 @@
         <v>9</v>
       </c>
       <c r="E84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>88</v>
       </c>
@@ -3443,10 +3437,10 @@
         <v>4</v>
       </c>
       <c r="E85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>89</v>
       </c>
@@ -3460,10 +3454,10 @@
         <v>2</v>
       </c>
       <c r="E86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>90</v>
       </c>
@@ -3477,10 +3471,10 @@
         <v>4</v>
       </c>
       <c r="E87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>91</v>
       </c>
@@ -3497,7 +3491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>92</v>
       </c>
@@ -3511,10 +3505,10 @@
         <v>7</v>
       </c>
       <c r="E89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>93</v>
       </c>
@@ -3528,10 +3522,10 @@
         <v>8</v>
       </c>
       <c r="E90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>94</v>
       </c>
@@ -3545,10 +3539,10 @@
         <v>10</v>
       </c>
       <c r="E91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>95</v>
       </c>
@@ -3562,10 +3556,10 @@
         <v>4</v>
       </c>
       <c r="E92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>96</v>
       </c>
@@ -3579,10 +3573,10 @@
         <v>6</v>
       </c>
       <c r="E93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>97</v>
       </c>
@@ -3596,10 +3590,10 @@
         <v>10</v>
       </c>
       <c r="E94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>98</v>
       </c>
@@ -3613,10 +3607,10 @@
         <v>7</v>
       </c>
       <c r="E95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>99</v>
       </c>
@@ -3630,10 +3624,10 @@
         <v>10</v>
       </c>
       <c r="E96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>100</v>
       </c>
@@ -3650,7 +3644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>101</v>
       </c>
@@ -3664,10 +3658,10 @@
         <v>9</v>
       </c>
       <c r="E98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>102</v>
       </c>
@@ -3681,10 +3675,10 @@
         <v>3</v>
       </c>
       <c r="E99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>103</v>
       </c>
@@ -3698,10 +3692,10 @@
         <v>7</v>
       </c>
       <c r="E100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>104</v>
       </c>
@@ -3715,10 +3709,10 @@
         <v>10</v>
       </c>
       <c r="E101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>105</v>
       </c>
@@ -3732,10 +3726,10 @@
         <v>8</v>
       </c>
       <c r="E102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>106</v>
       </c>
@@ -3749,10 +3743,10 @@
         <v>7</v>
       </c>
       <c r="E103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>107</v>
       </c>
@@ -3766,10 +3760,10 @@
         <v>6</v>
       </c>
       <c r="E104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>108</v>
       </c>
@@ -3783,10 +3777,10 @@
         <v>9</v>
       </c>
       <c r="E105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>109</v>
       </c>
@@ -3800,10 +3794,10 @@
         <v>4</v>
       </c>
       <c r="E106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>110</v>
       </c>
@@ -3817,10 +3811,10 @@
         <v>2</v>
       </c>
       <c r="E107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>111</v>
       </c>
@@ -3834,10 +3828,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>112</v>
       </c>
@@ -3851,10 +3845,10 @@
         <v>6</v>
       </c>
       <c r="E109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>113</v>
       </c>
@@ -3868,10 +3862,10 @@
         <v>9</v>
       </c>
       <c r="E110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>114</v>
       </c>
@@ -3885,10 +3879,10 @@
         <v>4</v>
       </c>
       <c r="E111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>115</v>
       </c>
@@ -3902,10 +3896,10 @@
         <v>3</v>
       </c>
       <c r="E112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>116</v>
       </c>
@@ -3919,10 +3913,10 @@
         <v>4</v>
       </c>
       <c r="E113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>117</v>
       </c>
@@ -3936,10 +3930,10 @@
         <v>2</v>
       </c>
       <c r="E114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>118</v>
       </c>
@@ -3953,10 +3947,10 @@
         <v>6</v>
       </c>
       <c r="E115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>119</v>
       </c>
@@ -3970,10 +3964,10 @@
         <v>2</v>
       </c>
       <c r="E116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>120</v>
       </c>
@@ -3990,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>121</v>
       </c>
@@ -4004,10 +3998,10 @@
         <v>3</v>
       </c>
       <c r="E118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>122</v>
       </c>
@@ -4021,10 +4015,10 @@
         <v>9</v>
       </c>
       <c r="E119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>123</v>
       </c>
@@ -4038,10 +4032,10 @@
         <v>5</v>
       </c>
       <c r="E120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>124</v>
       </c>
@@ -4055,10 +4049,10 @@
         <v>10</v>
       </c>
       <c r="E121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>125</v>
       </c>
@@ -4075,7 +4069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>126</v>
       </c>
@@ -4089,10 +4083,10 @@
         <v>3</v>
       </c>
       <c r="E123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>127</v>
       </c>
@@ -4106,10 +4100,10 @@
         <v>8</v>
       </c>
       <c r="E124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>128</v>
       </c>
@@ -4123,10 +4117,10 @@
         <v>4</v>
       </c>
       <c r="E125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>129</v>
       </c>
@@ -4140,10 +4134,10 @@
         <v>10</v>
       </c>
       <c r="E126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>130</v>
       </c>
@@ -4157,10 +4151,10 @@
         <v>4</v>
       </c>
       <c r="E127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>131</v>
       </c>
@@ -4174,10 +4168,10 @@
         <v>5</v>
       </c>
       <c r="E128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>132</v>
       </c>
@@ -4191,10 +4185,10 @@
         <v>2</v>
       </c>
       <c r="E129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>133</v>
       </c>
@@ -4208,10 +4202,10 @@
         <v>10</v>
       </c>
       <c r="E130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>134</v>
       </c>
@@ -4225,10 +4219,10 @@
         <v>9</v>
       </c>
       <c r="E131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>135</v>
       </c>
@@ -4242,10 +4236,10 @@
         <v>8</v>
       </c>
       <c r="E132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>136</v>
       </c>
@@ -4259,10 +4253,10 @@
         <v>3</v>
       </c>
       <c r="E133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>137</v>
       </c>
@@ -4276,10 +4270,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>138</v>
       </c>
@@ -4293,10 +4287,10 @@
         <v>4</v>
       </c>
       <c r="E135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>139</v>
       </c>
@@ -4310,10 +4304,10 @@
         <v>4</v>
       </c>
       <c r="E136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>140</v>
       </c>
@@ -4330,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>141</v>
       </c>
@@ -4344,10 +4338,10 @@
         <v>10</v>
       </c>
       <c r="E138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>142</v>
       </c>
@@ -4361,10 +4355,10 @@
         <v>4</v>
       </c>
       <c r="E139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>143</v>
       </c>
@@ -4378,10 +4372,10 @@
         <v>2</v>
       </c>
       <c r="E140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>144</v>
       </c>
@@ -4395,10 +4389,10 @@
         <v>3</v>
       </c>
       <c r="E141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>145</v>
       </c>
@@ -4412,10 +4406,10 @@
         <v>7</v>
       </c>
       <c r="E142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>146</v>
       </c>
@@ -4429,10 +4423,10 @@
         <v>10</v>
       </c>
       <c r="E143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>147</v>
       </c>
@@ -4446,10 +4440,10 @@
         <v>2</v>
       </c>
       <c r="E144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>148</v>
       </c>
@@ -4463,10 +4457,10 @@
         <v>3</v>
       </c>
       <c r="E145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>149</v>
       </c>
@@ -4480,10 +4474,10 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>150</v>
       </c>
@@ -4497,10 +4491,10 @@
         <v>2</v>
       </c>
       <c r="E147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>151</v>
       </c>
@@ -4514,10 +4508,10 @@
         <v>5</v>
       </c>
       <c r="E148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>152</v>
       </c>
@@ -4531,10 +4525,10 @@
         <v>3</v>
       </c>
       <c r="E149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>153</v>
       </c>
@@ -4548,10 +4542,10 @@
         <v>7</v>
       </c>
       <c r="E150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>154</v>
       </c>
@@ -4565,10 +4559,10 @@
         <v>4</v>
       </c>
       <c r="E151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>155</v>
       </c>
@@ -4582,10 +4576,10 @@
         <v>8</v>
       </c>
       <c r="E152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>156</v>
       </c>
@@ -4599,10 +4593,10 @@
         <v>9</v>
       </c>
       <c r="E153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>157</v>
       </c>
@@ -4616,10 +4610,10 @@
         <v>9</v>
       </c>
       <c r="E154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>158</v>
       </c>
@@ -4633,10 +4627,10 @@
         <v>3</v>
       </c>
       <c r="E155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>159</v>
       </c>
@@ -4650,10 +4644,10 @@
         <v>9</v>
       </c>
       <c r="E156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>160</v>
       </c>
@@ -4667,10 +4661,10 @@
         <v>6</v>
       </c>
       <c r="E157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>161</v>
       </c>
@@ -4684,10 +4678,10 @@
         <v>5</v>
       </c>
       <c r="E158">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>162</v>
       </c>
@@ -4701,10 +4695,10 @@
         <v>9</v>
       </c>
       <c r="E159">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>163</v>
       </c>
@@ -4718,10 +4712,10 @@
         <v>3</v>
       </c>
       <c r="E160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>164</v>
       </c>
@@ -4738,7 +4732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>165</v>
       </c>
@@ -4752,10 +4746,10 @@
         <v>5</v>
       </c>
       <c r="E162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>166</v>
       </c>
@@ -4769,10 +4763,10 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>167</v>
       </c>
@@ -4786,10 +4780,10 @@
         <v>5</v>
       </c>
       <c r="E164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>168</v>
       </c>
@@ -4803,10 +4797,10 @@
         <v>4</v>
       </c>
       <c r="E165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>169</v>
       </c>
@@ -4820,10 +4814,10 @@
         <v>7</v>
       </c>
       <c r="E166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>170</v>
       </c>
@@ -4837,10 +4831,10 @@
         <v>4</v>
       </c>
       <c r="E167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>171</v>
       </c>
@@ -4854,10 +4848,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>172</v>
       </c>
@@ -4874,7 +4868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>173</v>
       </c>
@@ -4888,10 +4882,10 @@
         <v>9</v>
       </c>
       <c r="E170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>174</v>
       </c>
@@ -4905,10 +4899,10 @@
         <v>9</v>
       </c>
       <c r="E171">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>175</v>
       </c>
@@ -4922,10 +4916,10 @@
         <v>7</v>
       </c>
       <c r="E172">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>176</v>
       </c>
@@ -4939,10 +4933,10 @@
         <v>6</v>
       </c>
       <c r="E173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>177</v>
       </c>
@@ -4956,10 +4950,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>178</v>
       </c>
@@ -4976,7 +4970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>179</v>
       </c>
@@ -4990,10 +4984,10 @@
         <v>3</v>
       </c>
       <c r="E176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>180</v>
       </c>
@@ -5007,10 +5001,10 @@
         <v>10</v>
       </c>
       <c r="E177">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>181</v>
       </c>
@@ -5024,10 +5018,10 @@
         <v>5</v>
       </c>
       <c r="E178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>182</v>
       </c>
@@ -5041,10 +5035,10 @@
         <v>4</v>
       </c>
       <c r="E179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>183</v>
       </c>
@@ -5061,7 +5055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>184</v>
       </c>
@@ -5075,10 +5069,10 @@
         <v>6</v>
       </c>
       <c r="E181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>185</v>
       </c>
@@ -5092,10 +5086,10 @@
         <v>3</v>
       </c>
       <c r="E182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>186</v>
       </c>
@@ -5109,10 +5103,10 @@
         <v>8</v>
       </c>
       <c r="E183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>187</v>
       </c>
@@ -5126,10 +5120,10 @@
         <v>10</v>
       </c>
       <c r="E184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>188</v>
       </c>
@@ -5143,10 +5137,10 @@
         <v>3</v>
       </c>
       <c r="E185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>189</v>
       </c>
@@ -5163,7 +5157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>190</v>
       </c>
@@ -5177,10 +5171,10 @@
         <v>7</v>
       </c>
       <c r="E187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>191</v>
       </c>
@@ -5194,10 +5188,10 @@
         <v>9</v>
       </c>
       <c r="E188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>192</v>
       </c>
@@ -5211,10 +5205,10 @@
         <v>9</v>
       </c>
       <c r="E189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>193</v>
       </c>
@@ -5228,10 +5222,10 @@
         <v>2</v>
       </c>
       <c r="E190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>194</v>
       </c>
@@ -5248,7 +5242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>195</v>
       </c>
@@ -5262,10 +5256,10 @@
         <v>9</v>
       </c>
       <c r="E192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>196</v>
       </c>
@@ -5279,10 +5273,10 @@
         <v>4</v>
       </c>
       <c r="E193">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>197</v>
       </c>
@@ -5296,10 +5290,10 @@
         <v>6</v>
       </c>
       <c r="E194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>198</v>
       </c>
@@ -5313,10 +5307,10 @@
         <v>8</v>
       </c>
       <c r="E195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>199</v>
       </c>
@@ -5330,10 +5324,10 @@
         <v>6</v>
       </c>
       <c r="E196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>200</v>
       </c>
@@ -5347,10 +5341,10 @@
         <v>10</v>
       </c>
       <c r="E197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>201</v>
       </c>
@@ -5364,10 +5358,10 @@
         <v>9</v>
       </c>
       <c r="E198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>202</v>
       </c>
@@ -5381,10 +5375,10 @@
         <v>7</v>
       </c>
       <c r="E199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>203</v>
       </c>
@@ -5401,7 +5395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>204</v>
       </c>
@@ -5415,10 +5409,10 @@
         <v>2</v>
       </c>
       <c r="E201">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>205</v>
       </c>
@@ -5432,10 +5426,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>206</v>
       </c>
@@ -5449,10 +5443,10 @@
         <v>8</v>
       </c>
       <c r="E203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>207</v>
       </c>
@@ -5466,10 +5460,10 @@
         <v>1</v>
       </c>
       <c r="E204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>208</v>
       </c>
@@ -5486,7 +5480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>209</v>
       </c>
@@ -5500,10 +5494,10 @@
         <v>7</v>
       </c>
       <c r="E206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>210</v>
       </c>
@@ -5517,10 +5511,10 @@
         <v>4</v>
       </c>
       <c r="E207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>211</v>
       </c>
@@ -5534,10 +5528,10 @@
         <v>9</v>
       </c>
       <c r="E208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>212</v>
       </c>
@@ -5554,7 +5548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>213</v>
       </c>
@@ -5568,10 +5562,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>214</v>
       </c>
@@ -5585,10 +5579,10 @@
         <v>6</v>
       </c>
       <c r="E211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>215</v>
       </c>
@@ -5602,10 +5596,10 @@
         <v>10</v>
       </c>
       <c r="E212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>216</v>
       </c>
@@ -5619,10 +5613,10 @@
         <v>10</v>
       </c>
       <c r="E213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>217</v>
       </c>
@@ -5636,10 +5630,10 @@
         <v>4</v>
       </c>
       <c r="E214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>218</v>
       </c>
@@ -5653,10 +5647,10 @@
         <v>5</v>
       </c>
       <c r="E215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>219</v>
       </c>
@@ -5670,10 +5664,10 @@
         <v>7</v>
       </c>
       <c r="E216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>220</v>
       </c>
@@ -5687,10 +5681,10 @@
         <v>2</v>
       </c>
       <c r="E217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>221</v>
       </c>
@@ -5704,10 +5698,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>222</v>
       </c>
@@ -5721,10 +5715,10 @@
         <v>10</v>
       </c>
       <c r="E219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>223</v>
       </c>
@@ -5741,7 +5735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>224</v>
       </c>
@@ -5755,10 +5749,10 @@
         <v>9</v>
       </c>
       <c r="E221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>225</v>
       </c>
@@ -5772,10 +5766,10 @@
         <v>10</v>
       </c>
       <c r="E222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>226</v>
       </c>
@@ -5789,10 +5783,10 @@
         <v>1</v>
       </c>
       <c r="E223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>227</v>
       </c>
@@ -5806,10 +5800,10 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>228</v>
       </c>
@@ -5823,10 +5817,10 @@
         <v>5</v>
       </c>
       <c r="E225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>229</v>
       </c>
@@ -5840,10 +5834,10 @@
         <v>9</v>
       </c>
       <c r="E226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>230</v>
       </c>
@@ -5857,10 +5851,10 @@
         <v>5</v>
       </c>
       <c r="E227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>231</v>
       </c>
@@ -5874,10 +5868,10 @@
         <v>1</v>
       </c>
       <c r="E228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>232</v>
       </c>
@@ -5891,10 +5885,10 @@
         <v>8</v>
       </c>
       <c r="E229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>233</v>
       </c>
@@ -5908,10 +5902,10 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>234</v>
       </c>
@@ -5925,10 +5919,10 @@
         <v>2</v>
       </c>
       <c r="E231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>235</v>
       </c>
@@ -5942,10 +5936,10 @@
         <v>8</v>
       </c>
       <c r="E232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>236</v>
       </c>
@@ -5959,10 +5953,10 @@
         <v>7</v>
       </c>
       <c r="E233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>237</v>
       </c>
@@ -5976,10 +5970,10 @@
         <v>9</v>
       </c>
       <c r="E234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>238</v>
       </c>
@@ -5993,10 +5987,10 @@
         <v>10</v>
       </c>
       <c r="E235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>239</v>
       </c>
@@ -6010,10 +6004,10 @@
         <v>9</v>
       </c>
       <c r="E236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>240</v>
       </c>
@@ -6027,10 +6021,10 @@
         <v>6</v>
       </c>
       <c r="E237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>241</v>
       </c>
@@ -6044,10 +6038,10 @@
         <v>5</v>
       </c>
       <c r="E238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>242</v>
       </c>
@@ -6061,10 +6055,10 @@
         <v>5</v>
       </c>
       <c r="E239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>243</v>
       </c>
@@ -6078,10 +6072,10 @@
         <v>2</v>
       </c>
       <c r="E240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>244</v>
       </c>
@@ -6095,10 +6089,10 @@
         <v>8</v>
       </c>
       <c r="E241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>245</v>
       </c>
@@ -6112,10 +6106,10 @@
         <v>5</v>
       </c>
       <c r="E242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>246</v>
       </c>
@@ -6129,10 +6123,10 @@
         <v>9</v>
       </c>
       <c r="E243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>247</v>
       </c>
@@ -6146,10 +6140,10 @@
         <v>8</v>
       </c>
       <c r="E244">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>248</v>
       </c>
@@ -6163,10 +6157,10 @@
         <v>5</v>
       </c>
       <c r="E245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>249</v>
       </c>
@@ -6180,10 +6174,10 @@
         <v>8</v>
       </c>
       <c r="E246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>250</v>
       </c>
@@ -6200,7 +6194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>251</v>
       </c>
@@ -6214,10 +6208,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>252</v>
       </c>
@@ -6231,10 +6225,10 @@
         <v>8</v>
       </c>
       <c r="E249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>253</v>
       </c>
@@ -6251,7 +6245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>254</v>
       </c>
@@ -6265,10 +6259,10 @@
         <v>4</v>
       </c>
       <c r="E251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>255</v>
       </c>
@@ -6282,10 +6276,10 @@
         <v>6</v>
       </c>
       <c r="E252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>256</v>
       </c>
@@ -6299,10 +6293,10 @@
         <v>5</v>
       </c>
       <c r="E253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>257</v>
       </c>
@@ -6316,10 +6310,10 @@
         <v>4</v>
       </c>
       <c r="E254">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>258</v>
       </c>
@@ -6336,7 +6330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>259</v>
       </c>
@@ -6350,10 +6344,10 @@
         <v>7</v>
       </c>
       <c r="E256">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>260</v>
       </c>
@@ -6367,10 +6361,10 @@
         <v>9</v>
       </c>
       <c r="E257">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>261</v>
       </c>
@@ -6384,10 +6378,10 @@
         <v>10</v>
       </c>
       <c r="E258">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>262</v>
       </c>
@@ -6404,7 +6398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>263</v>
       </c>
@@ -6418,10 +6412,10 @@
         <v>3</v>
       </c>
       <c r="E260">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>264</v>
       </c>
@@ -6435,10 +6429,10 @@
         <v>7</v>
       </c>
       <c r="E261">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>265</v>
       </c>
@@ -6452,10 +6446,10 @@
         <v>3</v>
       </c>
       <c r="E262">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>266</v>
       </c>
@@ -6472,7 +6466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>267</v>
       </c>
@@ -6486,10 +6480,10 @@
         <v>7</v>
       </c>
       <c r="E264">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>268</v>
       </c>
@@ -6503,10 +6497,10 @@
         <v>2</v>
       </c>
       <c r="E265">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>269</v>
       </c>
@@ -6520,10 +6514,10 @@
         <v>7</v>
       </c>
       <c r="E266">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>270</v>
       </c>
@@ -6537,10 +6531,10 @@
         <v>6</v>
       </c>
       <c r="E267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>271</v>
       </c>
@@ -6554,10 +6548,10 @@
         <v>2</v>
       </c>
       <c r="E268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>272</v>
       </c>
@@ -6571,10 +6565,10 @@
         <v>8</v>
       </c>
       <c r="E269">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>273</v>
       </c>
@@ -6588,10 +6582,10 @@
         <v>5</v>
       </c>
       <c r="E270">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>274</v>
       </c>
@@ -6605,10 +6599,10 @@
         <v>3</v>
       </c>
       <c r="E271">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>275</v>
       </c>
@@ -6622,10 +6616,10 @@
         <v>9</v>
       </c>
       <c r="E272">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>276</v>
       </c>
@@ -6639,10 +6633,10 @@
         <v>9</v>
       </c>
       <c r="E273">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>277</v>
       </c>
@@ -6656,10 +6650,10 @@
         <v>3</v>
       </c>
       <c r="E274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>278</v>
       </c>
@@ -6673,10 +6667,10 @@
         <v>3</v>
       </c>
       <c r="E275">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>279</v>
       </c>
@@ -6690,10 +6684,10 @@
         <v>5</v>
       </c>
       <c r="E276">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>280</v>
       </c>
@@ -6707,10 +6701,10 @@
         <v>8</v>
       </c>
       <c r="E277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>281</v>
       </c>
@@ -6724,10 +6718,10 @@
         <v>1</v>
       </c>
       <c r="E278">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>282</v>
       </c>
@@ -6741,10 +6735,10 @@
         <v>3</v>
       </c>
       <c r="E279">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="280" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>283</v>
       </c>
@@ -6758,10 +6752,10 @@
         <v>7</v>
       </c>
       <c r="E280">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>284</v>
       </c>
@@ -6775,10 +6769,10 @@
         <v>7</v>
       </c>
       <c r="E281">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>285</v>
       </c>
@@ -6792,10 +6786,10 @@
         <v>8</v>
       </c>
       <c r="E282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>286</v>
       </c>
@@ -6809,10 +6803,10 @@
         <v>8</v>
       </c>
       <c r="E283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>287</v>
       </c>
@@ -6826,10 +6820,10 @@
         <v>9</v>
       </c>
       <c r="E284">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="285" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>288</v>
       </c>
@@ -6843,10 +6837,10 @@
         <v>10</v>
       </c>
       <c r="E285">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>289</v>
       </c>
@@ -6860,10 +6854,10 @@
         <v>2</v>
       </c>
       <c r="E286">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>290</v>
       </c>
@@ -6877,10 +6871,10 @@
         <v>7</v>
       </c>
       <c r="E287">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="288" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>291</v>
       </c>
@@ -6894,10 +6888,10 @@
         <v>3</v>
       </c>
       <c r="E288">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>292</v>
       </c>
@@ -6911,10 +6905,10 @@
         <v>9</v>
       </c>
       <c r="E289">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>293</v>
       </c>
@@ -6928,10 +6922,10 @@
         <v>7</v>
       </c>
       <c r="E290">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>294</v>
       </c>
@@ -6945,10 +6939,10 @@
         <v>10</v>
       </c>
       <c r="E291">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>295</v>
       </c>
@@ -6962,10 +6956,10 @@
         <v>8</v>
       </c>
       <c r="E292">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>296</v>
       </c>
@@ -6979,10 +6973,10 @@
         <v>6</v>
       </c>
       <c r="E293">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>297</v>
       </c>
@@ -6996,10 +6990,10 @@
         <v>1</v>
       </c>
       <c r="E294">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>298</v>
       </c>
@@ -7013,10 +7007,10 @@
         <v>10</v>
       </c>
       <c r="E295">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>299</v>
       </c>
@@ -7030,10 +7024,10 @@
         <v>5</v>
       </c>
       <c r="E296">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="297" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>300</v>
       </c>
@@ -7047,10 +7041,10 @@
         <v>8</v>
       </c>
       <c r="E297">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>301</v>
       </c>
@@ -7064,10 +7058,10 @@
         <v>4</v>
       </c>
       <c r="E298">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>302</v>
       </c>
@@ -7081,10 +7075,10 @@
         <v>1</v>
       </c>
       <c r="E299">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>303</v>
       </c>
@@ -7098,10 +7092,10 @@
         <v>10</v>
       </c>
       <c r="E300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>304</v>
       </c>
@@ -7115,10 +7109,10 @@
         <v>5</v>
       </c>
       <c r="E301">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="302" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>305</v>
       </c>
@@ -7132,10 +7126,10 @@
         <v>5</v>
       </c>
       <c r="E302">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>306</v>
       </c>
@@ -7149,10 +7143,10 @@
         <v>5</v>
       </c>
       <c r="E303">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="304" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>307</v>
       </c>
@@ -7166,10 +7160,10 @@
         <v>10</v>
       </c>
       <c r="E304">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="305" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>308</v>
       </c>
@@ -7183,10 +7177,10 @@
         <v>8</v>
       </c>
       <c r="E305">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>309</v>
       </c>
@@ -7200,10 +7194,10 @@
         <v>3</v>
       </c>
       <c r="E306">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>310</v>
       </c>
@@ -7217,10 +7211,10 @@
         <v>9</v>
       </c>
       <c r="E307">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>311</v>
       </c>
@@ -7234,10 +7228,10 @@
         <v>5</v>
       </c>
       <c r="E308">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="309" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>312</v>
       </c>
@@ -7251,10 +7245,10 @@
         <v>7</v>
       </c>
       <c r="E309">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>313</v>
       </c>
@@ -7268,10 +7262,10 @@
         <v>5</v>
       </c>
       <c r="E310">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="311" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>314</v>
       </c>
@@ -7285,10 +7279,10 @@
         <v>10</v>
       </c>
       <c r="E311">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>315</v>
       </c>
@@ -7302,10 +7296,10 @@
         <v>9</v>
       </c>
       <c r="E312">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="313" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>316</v>
       </c>
@@ -7322,7 +7316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>317</v>
       </c>
@@ -7336,10 +7330,10 @@
         <v>7</v>
       </c>
       <c r="E314">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="315" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>318</v>
       </c>
@@ -7353,10 +7347,10 @@
         <v>8</v>
       </c>
       <c r="E315">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="316" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>319</v>
       </c>
@@ -7370,10 +7364,10 @@
         <v>10</v>
       </c>
       <c r="E316">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="317" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>320</v>
       </c>
@@ -7387,10 +7381,10 @@
         <v>3</v>
       </c>
       <c r="E317">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="318" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>321</v>
       </c>
@@ -7404,10 +7398,10 @@
         <v>1</v>
       </c>
       <c r="E318">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>322</v>
       </c>
@@ -7421,10 +7415,10 @@
         <v>5</v>
       </c>
       <c r="E319">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>323</v>
       </c>
@@ -7438,10 +7432,10 @@
         <v>4</v>
       </c>
       <c r="E320">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>324</v>
       </c>
@@ -7455,10 +7449,10 @@
         <v>2</v>
       </c>
       <c r="E321">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>325</v>
       </c>
@@ -7472,10 +7466,10 @@
         <v>3</v>
       </c>
       <c r="E322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>326</v>
       </c>
@@ -7489,10 +7483,10 @@
         <v>6</v>
       </c>
       <c r="E323">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>327</v>
       </c>
@@ -7506,10 +7500,10 @@
         <v>6</v>
       </c>
       <c r="E324">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="325" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>328</v>
       </c>
@@ -7523,10 +7517,10 @@
         <v>10</v>
       </c>
       <c r="E325">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="326" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>329</v>
       </c>
@@ -7540,10 +7534,10 @@
         <v>6</v>
       </c>
       <c r="E326">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>330</v>
       </c>
@@ -7560,7 +7554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>331</v>
       </c>
@@ -7574,10 +7568,10 @@
         <v>5</v>
       </c>
       <c r="E328">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>332</v>
       </c>
@@ -7594,7 +7588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>333</v>
       </c>
@@ -7608,10 +7602,10 @@
         <v>6</v>
       </c>
       <c r="E330">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>334</v>
       </c>
@@ -7625,10 +7619,10 @@
         <v>10</v>
       </c>
       <c r="E331">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>335</v>
       </c>
@@ -7642,10 +7636,10 @@
         <v>10</v>
       </c>
       <c r="E332">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>336</v>
       </c>
@@ -7662,7 +7656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>337</v>
       </c>
@@ -7676,10 +7670,10 @@
         <v>10</v>
       </c>
       <c r="E334">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="335" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>338</v>
       </c>
@@ -7693,10 +7687,10 @@
         <v>6</v>
       </c>
       <c r="E335">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>339</v>
       </c>
@@ -7710,10 +7704,10 @@
         <v>2</v>
       </c>
       <c r="E336">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>340</v>
       </c>
@@ -7727,10 +7721,10 @@
         <v>2</v>
       </c>
       <c r="E337">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="338" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>341</v>
       </c>
@@ -7744,10 +7738,10 @@
         <v>2</v>
       </c>
       <c r="E338">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="339" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>342</v>
       </c>
@@ -7761,10 +7755,10 @@
         <v>8</v>
       </c>
       <c r="E339">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="340" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>343</v>
       </c>
@@ -7778,10 +7772,10 @@
         <v>2</v>
       </c>
       <c r="E340">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="341" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>344</v>
       </c>
@@ -7795,10 +7789,10 @@
         <v>7</v>
       </c>
       <c r="E341">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="342" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>345</v>
       </c>
@@ -7812,10 +7806,10 @@
         <v>5</v>
       </c>
       <c r="E342">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="343" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>346</v>
       </c>
@@ -7832,7 +7826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>347</v>
       </c>
@@ -7846,10 +7840,10 @@
         <v>7</v>
       </c>
       <c r="E344">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="345" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>348</v>
       </c>
@@ -7863,10 +7857,10 @@
         <v>7</v>
       </c>
       <c r="E345">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="346" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>349</v>
       </c>
@@ -7880,10 +7874,10 @@
         <v>7</v>
       </c>
       <c r="E346">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="347" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>350</v>
       </c>
@@ -7897,10 +7891,10 @@
         <v>5</v>
       </c>
       <c r="E347">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>351</v>
       </c>
@@ -7914,10 +7908,10 @@
         <v>2</v>
       </c>
       <c r="E348">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>352</v>
       </c>
@@ -7931,10 +7925,10 @@
         <v>10</v>
       </c>
       <c r="E349">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>353</v>
       </c>
@@ -7948,10 +7942,10 @@
         <v>4</v>
       </c>
       <c r="E350">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>354</v>
       </c>
@@ -7965,10 +7959,10 @@
         <v>2</v>
       </c>
       <c r="E351">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>355</v>
       </c>
@@ -7982,10 +7976,10 @@
         <v>9</v>
       </c>
       <c r="E352">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>356</v>
       </c>
@@ -7999,10 +7993,10 @@
         <v>7</v>
       </c>
       <c r="E353">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>357</v>
       </c>
@@ -8016,10 +8010,10 @@
         <v>5</v>
       </c>
       <c r="E354">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>358</v>
       </c>
@@ -8033,10 +8027,10 @@
         <v>8</v>
       </c>
       <c r="E355">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>359</v>
       </c>
@@ -8053,7 +8047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>360</v>
       </c>
@@ -8067,10 +8061,10 @@
         <v>10</v>
       </c>
       <c r="E357">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>361</v>
       </c>
@@ -8084,10 +8078,10 @@
         <v>6</v>
       </c>
       <c r="E358">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>362</v>
       </c>
@@ -8101,10 +8095,10 @@
         <v>10</v>
       </c>
       <c r="E359">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>363</v>
       </c>
@@ -8118,10 +8112,10 @@
         <v>3</v>
       </c>
       <c r="E360">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>364</v>
       </c>
@@ -8135,10 +8129,10 @@
         <v>5</v>
       </c>
       <c r="E361">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>365</v>
       </c>
@@ -8152,10 +8146,10 @@
         <v>7</v>
       </c>
       <c r="E362">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>366</v>
       </c>
@@ -8169,10 +8163,10 @@
         <v>9</v>
       </c>
       <c r="E363">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>367</v>
       </c>
@@ -8186,10 +8180,10 @@
         <v>3</v>
       </c>
       <c r="E364">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>368</v>
       </c>
@@ -8203,10 +8197,10 @@
         <v>10</v>
       </c>
       <c r="E365">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>369</v>
       </c>
@@ -8220,10 +8214,10 @@
         <v>6</v>
       </c>
       <c r="E366">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>370</v>
       </c>
@@ -8237,10 +8231,10 @@
         <v>8</v>
       </c>
       <c r="E367">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>371</v>
       </c>
@@ -8254,10 +8248,10 @@
         <v>5</v>
       </c>
       <c r="E368">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="369" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>372</v>
       </c>
@@ -8271,10 +8265,10 @@
         <v>7</v>
       </c>
       <c r="E369">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="370" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>373</v>
       </c>
@@ -8288,10 +8282,10 @@
         <v>8</v>
       </c>
       <c r="E370">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="371" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>374</v>
       </c>
@@ -8305,10 +8299,10 @@
         <v>1</v>
       </c>
       <c r="E371">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>375</v>
       </c>
@@ -8322,10 +8316,10 @@
         <v>10</v>
       </c>
       <c r="E372">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="373" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>376</v>
       </c>
@@ -8339,10 +8333,10 @@
         <v>9</v>
       </c>
       <c r="E373">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>377</v>
       </c>
@@ -8356,10 +8350,10 @@
         <v>4</v>
       </c>
       <c r="E374">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="375" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>378</v>
       </c>
@@ -8373,10 +8367,10 @@
         <v>5</v>
       </c>
       <c r="E375">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="376" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>379</v>
       </c>
@@ -8393,7 +8387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>380</v>
       </c>
@@ -8407,10 +8401,10 @@
         <v>6</v>
       </c>
       <c r="E377">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>381</v>
       </c>
@@ -8424,10 +8418,10 @@
         <v>4</v>
       </c>
       <c r="E378">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>382</v>
       </c>
@@ -8441,10 +8435,10 @@
         <v>4</v>
       </c>
       <c r="E379">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>383</v>
       </c>
@@ -8458,10 +8452,10 @@
         <v>1</v>
       </c>
       <c r="E380">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>384</v>
       </c>
@@ -8475,10 +8469,10 @@
         <v>1</v>
       </c>
       <c r="E381">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>385</v>
       </c>
@@ -8492,10 +8486,10 @@
         <v>10</v>
       </c>
       <c r="E382">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="383" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>386</v>
       </c>
@@ -8509,10 +8503,10 @@
         <v>10</v>
       </c>
       <c r="E383">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>387</v>
       </c>
@@ -8526,10 +8520,10 @@
         <v>4</v>
       </c>
       <c r="E384">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>388</v>
       </c>
@@ -8543,10 +8537,10 @@
         <v>3</v>
       </c>
       <c r="E385">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="386" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>389</v>
       </c>
@@ -8560,10 +8554,10 @@
         <v>4</v>
       </c>
       <c r="E386">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="387" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>390</v>
       </c>
@@ -8577,10 +8571,10 @@
         <v>7</v>
       </c>
       <c r="E387">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>391</v>
       </c>
@@ -8594,10 +8588,10 @@
         <v>4</v>
       </c>
       <c r="E388">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>392</v>
       </c>
@@ -8611,10 +8605,10 @@
         <v>4</v>
       </c>
       <c r="E389">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>393</v>
       </c>
@@ -8628,10 +8622,10 @@
         <v>7</v>
       </c>
       <c r="E390">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>394</v>
       </c>
@@ -8645,10 +8639,10 @@
         <v>3</v>
       </c>
       <c r="E391">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>395</v>
       </c>
@@ -8662,10 +8656,10 @@
         <v>3</v>
       </c>
       <c r="E392">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>396</v>
       </c>
@@ -8679,10 +8673,10 @@
         <v>4</v>
       </c>
       <c r="E393">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>397</v>
       </c>
@@ -8696,10 +8690,10 @@
         <v>5</v>
       </c>
       <c r="E394">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>398</v>
       </c>
@@ -8713,10 +8707,10 @@
         <v>7</v>
       </c>
       <c r="E395">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>399</v>
       </c>
@@ -8730,10 +8724,10 @@
         <v>5</v>
       </c>
       <c r="E396">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="397" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>400</v>
       </c>
@@ -8747,10 +8741,10 @@
         <v>10</v>
       </c>
       <c r="E397">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="398" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>401</v>
       </c>
@@ -8764,10 +8758,10 @@
         <v>10</v>
       </c>
       <c r="E398">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="399" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>402</v>
       </c>
@@ -8781,10 +8775,10 @@
         <v>2</v>
       </c>
       <c r="E399">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="400" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>403</v>
       </c>
@@ -8798,10 +8792,10 @@
         <v>3</v>
       </c>
       <c r="E400">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="401" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>404</v>
       </c>
@@ -8815,10 +8809,10 @@
         <v>4</v>
       </c>
       <c r="E401">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="402" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>405</v>
       </c>
@@ -8832,10 +8826,10 @@
         <v>2</v>
       </c>
       <c r="E402">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="403" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>406</v>
       </c>
@@ -8849,10 +8843,10 @@
         <v>4</v>
       </c>
       <c r="E403">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="404" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>407</v>
       </c>
@@ -8866,10 +8860,10 @@
         <v>4</v>
       </c>
       <c r="E404">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="405" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>408</v>
       </c>
@@ -8883,10 +8877,10 @@
         <v>9</v>
       </c>
       <c r="E405">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>409</v>
       </c>
@@ -8900,10 +8894,10 @@
         <v>8</v>
       </c>
       <c r="E406">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="407" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>410</v>
       </c>
@@ -8920,7 +8914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>411</v>
       </c>
@@ -8934,10 +8928,10 @@
         <v>6</v>
       </c>
       <c r="E408">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="409" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>412</v>
       </c>
@@ -8951,10 +8945,10 @@
         <v>8</v>
       </c>
       <c r="E409">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>413</v>
       </c>
@@ -8968,10 +8962,10 @@
         <v>5</v>
       </c>
       <c r="E410">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="411" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>414</v>
       </c>
@@ -8985,10 +8979,10 @@
         <v>6</v>
       </c>
       <c r="E411">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="412" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>415</v>
       </c>
@@ -9002,10 +8996,10 @@
         <v>9</v>
       </c>
       <c r="E412">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="413" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>416</v>
       </c>
@@ -9019,10 +9013,10 @@
         <v>5</v>
       </c>
       <c r="E413">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="414" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>417</v>
       </c>
@@ -9036,10 +9030,10 @@
         <v>1</v>
       </c>
       <c r="E414">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="415" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>418</v>
       </c>
@@ -9056,7 +9050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>419</v>
       </c>
@@ -9070,10 +9064,10 @@
         <v>8</v>
       </c>
       <c r="E416">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>420</v>
       </c>
@@ -9087,10 +9081,10 @@
         <v>8</v>
       </c>
       <c r="E417">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="418" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>421</v>
       </c>
@@ -9104,10 +9098,10 @@
         <v>2</v>
       </c>
       <c r="E418">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="419" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>422</v>
       </c>
@@ -9121,10 +9115,10 @@
         <v>8</v>
       </c>
       <c r="E419">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="420" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>423</v>
       </c>
@@ -9138,10 +9132,10 @@
         <v>8</v>
       </c>
       <c r="E420">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="421" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>424</v>
       </c>
@@ -9155,10 +9149,10 @@
         <v>8</v>
       </c>
       <c r="E421">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="422" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>425</v>
       </c>
@@ -9172,10 +9166,10 @@
         <v>9</v>
       </c>
       <c r="E422">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="423" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>426</v>
       </c>
@@ -9189,10 +9183,10 @@
         <v>5</v>
       </c>
       <c r="E423">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="424" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>427</v>
       </c>
@@ -9206,10 +9200,10 @@
         <v>6</v>
       </c>
       <c r="E424">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="425" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>428</v>
       </c>
@@ -9223,10 +9217,10 @@
         <v>5</v>
       </c>
       <c r="E425">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="426" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>429</v>
       </c>
@@ -9240,10 +9234,10 @@
         <v>7</v>
       </c>
       <c r="E426">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="427" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>430</v>
       </c>
@@ -9257,10 +9251,10 @@
         <v>5</v>
       </c>
       <c r="E427">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="428" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>431</v>
       </c>
@@ -9274,10 +9268,10 @@
         <v>5</v>
       </c>
       <c r="E428">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="429" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>432</v>
       </c>
@@ -9291,10 +9285,10 @@
         <v>4</v>
       </c>
       <c r="E429">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="430" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>433</v>
       </c>
@@ -9308,10 +9302,10 @@
         <v>1</v>
       </c>
       <c r="E430">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="431" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>434</v>
       </c>
@@ -9325,10 +9319,10 @@
         <v>5</v>
       </c>
       <c r="E431">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="432" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>435</v>
       </c>
@@ -9342,10 +9336,10 @@
         <v>5</v>
       </c>
       <c r="E432">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="433" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>436</v>
       </c>
@@ -9359,10 +9353,10 @@
         <v>2</v>
       </c>
       <c r="E433">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="434" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>437</v>
       </c>
@@ -9376,10 +9370,10 @@
         <v>3</v>
       </c>
       <c r="E434">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="435" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>438</v>
       </c>
@@ -9393,10 +9387,10 @@
         <v>9</v>
       </c>
       <c r="E435">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="436" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>439</v>
       </c>
@@ -9410,10 +9404,10 @@
         <v>8</v>
       </c>
       <c r="E436">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="437" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>440</v>
       </c>
@@ -9427,10 +9421,10 @@
         <v>2</v>
       </c>
       <c r="E437">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="438" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>441</v>
       </c>
@@ -9444,10 +9438,10 @@
         <v>3</v>
       </c>
       <c r="E438">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="439" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>442</v>
       </c>
@@ -9461,10 +9455,10 @@
         <v>7</v>
       </c>
       <c r="E439">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="440" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>443</v>
       </c>
@@ -9478,10 +9472,10 @@
         <v>4</v>
       </c>
       <c r="E440">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="441" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>444</v>
       </c>
@@ -9495,10 +9489,10 @@
         <v>10</v>
       </c>
       <c r="E441">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="442" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>445</v>
       </c>
@@ -9512,10 +9506,10 @@
         <v>6</v>
       </c>
       <c r="E442">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="443" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>446</v>
       </c>
@@ -9529,10 +9523,10 @@
         <v>9</v>
       </c>
       <c r="E443">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="444" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>447</v>
       </c>
@@ -9546,10 +9540,10 @@
         <v>2</v>
       </c>
       <c r="E444">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="445" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>448</v>
       </c>
@@ -9566,7 +9560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:5">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>449</v>
       </c>
@@ -9580,10 +9574,10 @@
         <v>9</v>
       </c>
       <c r="E446">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="447" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>450</v>
       </c>
@@ -9597,10 +9591,10 @@
         <v>3</v>
       </c>
       <c r="E447">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="448" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>451</v>
       </c>
@@ -9614,10 +9608,10 @@
         <v>5</v>
       </c>
       <c r="E448">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="449" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>452</v>
       </c>
@@ -9631,10 +9625,10 @@
         <v>10</v>
       </c>
       <c r="E449">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="450" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>453</v>
       </c>
@@ -9648,10 +9642,10 @@
         <v>6</v>
       </c>
       <c r="E450">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="451" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>454</v>
       </c>
@@ -9665,10 +9659,10 @@
         <v>10</v>
       </c>
       <c r="E451">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="452" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>455</v>
       </c>
@@ -9682,10 +9676,10 @@
         <v>7</v>
       </c>
       <c r="E452">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="453" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>456</v>
       </c>
@@ -9699,10 +9693,10 @@
         <v>7</v>
       </c>
       <c r="E453">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="454" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>457</v>
       </c>
@@ -9716,10 +9710,10 @@
         <v>6</v>
       </c>
       <c r="E454">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="455" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>458</v>
       </c>
@@ -9733,10 +9727,10 @@
         <v>5</v>
       </c>
       <c r="E455">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="456" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>459</v>
       </c>
@@ -9750,10 +9744,10 @@
         <v>5</v>
       </c>
       <c r="E456">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="457" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>460</v>
       </c>
@@ -9767,10 +9761,10 @@
         <v>10</v>
       </c>
       <c r="E457">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="458" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>461</v>
       </c>
@@ -9784,10 +9778,10 @@
         <v>2</v>
       </c>
       <c r="E458">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>462</v>
       </c>
@@ -9804,7 +9798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:5">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>463</v>
       </c>
@@ -9818,10 +9812,10 @@
         <v>7</v>
       </c>
       <c r="E460">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="461" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>464</v>
       </c>
@@ -9835,10 +9829,10 @@
         <v>3</v>
       </c>
       <c r="E461">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="462" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>465</v>
       </c>
@@ -9852,10 +9846,10 @@
         <v>2</v>
       </c>
       <c r="E462">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="463" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>466</v>
       </c>
@@ -9869,10 +9863,10 @@
         <v>7</v>
       </c>
       <c r="E463">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="464" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>467</v>
       </c>
@@ -9886,10 +9880,10 @@
         <v>10</v>
       </c>
       <c r="E464">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>468</v>
       </c>
@@ -9903,10 +9897,10 @@
         <v>4</v>
       </c>
       <c r="E465">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>469</v>
       </c>
@@ -9920,10 +9914,10 @@
         <v>6</v>
       </c>
       <c r="E466">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>470</v>
       </c>
@@ -9937,10 +9931,10 @@
         <v>10</v>
       </c>
       <c r="E467">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>471</v>
       </c>
@@ -9954,10 +9948,10 @@
         <v>4</v>
       </c>
       <c r="E468">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="469" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>472</v>
       </c>
@@ -9971,10 +9965,10 @@
         <v>7</v>
       </c>
       <c r="E469">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="470" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>473</v>
       </c>
@@ -9988,10 +9982,10 @@
         <v>6</v>
       </c>
       <c r="E470">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="471" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>474</v>
       </c>
@@ -10005,10 +9999,10 @@
         <v>9</v>
       </c>
       <c r="E471">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="472" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>475</v>
       </c>
@@ -10022,10 +10016,10 @@
         <v>4</v>
       </c>
       <c r="E472">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="473" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>476</v>
       </c>
@@ -10039,10 +10033,10 @@
         <v>7</v>
       </c>
       <c r="E473">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="474" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>477</v>
       </c>
@@ -10056,10 +10050,10 @@
         <v>10</v>
       </c>
       <c r="E474">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="475" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>478</v>
       </c>
@@ -10073,10 +10067,10 @@
         <v>2</v>
       </c>
       <c r="E475">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="476" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>479</v>
       </c>
@@ -10090,10 +10084,10 @@
         <v>7</v>
       </c>
       <c r="E476">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="477" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>480</v>
       </c>
@@ -10107,10 +10101,10 @@
         <v>3</v>
       </c>
       <c r="E477">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="478" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>481</v>
       </c>
@@ -10124,10 +10118,10 @@
         <v>5</v>
       </c>
       <c r="E478">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="479" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>482</v>
       </c>
@@ -10141,10 +10135,10 @@
         <v>8</v>
       </c>
       <c r="E479">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="480" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>483</v>
       </c>
@@ -10158,10 +10152,10 @@
         <v>9</v>
       </c>
       <c r="E480">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="481" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>484</v>
       </c>
@@ -10175,10 +10169,10 @@
         <v>4</v>
       </c>
       <c r="E481">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>485</v>
       </c>
@@ -10192,10 +10186,10 @@
         <v>6</v>
       </c>
       <c r="E482">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="483" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>486</v>
       </c>
@@ -10209,10 +10203,10 @@
         <v>6</v>
       </c>
       <c r="E483">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="484" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>487</v>
       </c>
@@ -10226,10 +10220,10 @@
         <v>7</v>
       </c>
       <c r="E484">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="485" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>488</v>
       </c>
@@ -10243,10 +10237,10 @@
         <v>6</v>
       </c>
       <c r="E485">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="486" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>489</v>
       </c>
@@ -10263,7 +10257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:5">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>490</v>
       </c>
@@ -10277,10 +10271,10 @@
         <v>10</v>
       </c>
       <c r="E487">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="488" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>491</v>
       </c>
@@ -10294,10 +10288,10 @@
         <v>10</v>
       </c>
       <c r="E488">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="489" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>492</v>
       </c>
@@ -10311,10 +10305,10 @@
         <v>5</v>
       </c>
       <c r="E489">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="490" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>493</v>
       </c>
@@ -10328,10 +10322,10 @@
         <v>10</v>
       </c>
       <c r="E490">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="491" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>494</v>
       </c>
@@ -10345,10 +10339,10 @@
         <v>9</v>
       </c>
       <c r="E491">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="492" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>495</v>
       </c>
@@ -10362,10 +10356,10 @@
         <v>3</v>
       </c>
       <c r="E492">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="493" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>496</v>
       </c>
@@ -10379,10 +10373,10 @@
         <v>6</v>
       </c>
       <c r="E493">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="494" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>497</v>
       </c>
@@ -10396,10 +10390,10 @@
         <v>10</v>
       </c>
       <c r="E494">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="495" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>498</v>
       </c>
@@ -10413,10 +10407,10 @@
         <v>8</v>
       </c>
       <c r="E495">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="496" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>499</v>
       </c>
@@ -10430,10 +10424,10 @@
         <v>3</v>
       </c>
       <c r="E496">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="497" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>500</v>
       </c>
@@ -10447,10 +10441,10 @@
         <v>6</v>
       </c>
       <c r="E497">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="498" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>501</v>
       </c>
@@ -10464,10 +10458,10 @@
         <v>10</v>
       </c>
       <c r="E498">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="499" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>502</v>
       </c>
@@ -10481,10 +10475,10 @@
         <v>3</v>
       </c>
       <c r="E499">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="500" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>503</v>
       </c>
@@ -10498,10 +10492,10 @@
         <v>8</v>
       </c>
       <c r="E500">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="501" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>504</v>
       </c>
@@ -10515,10 +10509,10 @@
         <v>5</v>
       </c>
       <c r="E501">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="502" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>505</v>
       </c>
@@ -10532,10 +10526,10 @@
         <v>8</v>
       </c>
       <c r="E502">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="503" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>506</v>
       </c>
@@ -10549,10 +10543,10 @@
         <v>7</v>
       </c>
       <c r="E503">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="504" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>507</v>
       </c>
@@ -10566,10 +10560,10 @@
         <v>10</v>
       </c>
       <c r="E504">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="505" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>508</v>
       </c>
@@ -10583,10 +10577,10 @@
         <v>6</v>
       </c>
       <c r="E505">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="506" spans="1:5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>509</v>
       </c>
@@ -10603,7 +10597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:5">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>510</v>
       </c>
@@ -10617,10 +10611,10 @@
         <v>4</v>
       </c>
       <c r="E507">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="508" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>511</v>
       </c>
@@ -10634,10 +10628,10 @@
         <v>9</v>
       </c>
       <c r="E508">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="509" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>512</v>
       </c>
@@ -10651,10 +10645,10 @@
         <v>1</v>
       </c>
       <c r="E509">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="510" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>513</v>
       </c>
@@ -10668,10 +10662,10 @@
         <v>7</v>
       </c>
       <c r="E510">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="511" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>514</v>
       </c>
@@ -10685,10 +10679,10 @@
         <v>3</v>
       </c>
       <c r="E511">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="512" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>515</v>
       </c>
@@ -10702,10 +10696,10 @@
         <v>9</v>
       </c>
       <c r="E512">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="513" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>516</v>
       </c>
@@ -10722,7 +10716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:5">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>517</v>
       </c>
@@ -10736,10 +10730,10 @@
         <v>10</v>
       </c>
       <c r="E514">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="515" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>518</v>
       </c>
@@ -10753,10 +10747,10 @@
         <v>4</v>
       </c>
       <c r="E515">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="516" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>519</v>
       </c>
@@ -10770,10 +10764,10 @@
         <v>1</v>
       </c>
       <c r="E516">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="517" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>520</v>
       </c>
@@ -10787,10 +10781,10 @@
         <v>1</v>
       </c>
       <c r="E517">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="518" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>521</v>
       </c>
@@ -10804,10 +10798,10 @@
         <v>4</v>
       </c>
       <c r="E518">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="519" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>522</v>
       </c>
@@ -10821,10 +10815,10 @@
         <v>6</v>
       </c>
       <c r="E519">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="520" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>523</v>
       </c>
@@ -10841,7 +10835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:5">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>524</v>
       </c>
@@ -10855,10 +10849,10 @@
         <v>5</v>
       </c>
       <c r="E521">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="522" spans="1:5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>525</v>
       </c>
@@ -10872,10 +10866,10 @@
         <v>3</v>
       </c>
       <c r="E522">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="523" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>526</v>
       </c>
@@ -10889,10 +10883,10 @@
         <v>9</v>
       </c>
       <c r="E523">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="524" spans="1:5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>527</v>
       </c>
@@ -10906,7 +10900,7 @@
         <v>9</v>
       </c>
       <c r="E524">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
